--- a/patient_details_updated.xlsx
+++ b/patient_details_updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\RemotePatient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\Remotepatient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3058683A-5629-42A2-8327-AB8455DEAA49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98915BE6-0C58-444A-9192-1DC6346A8EA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="1488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="5040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>Firstname</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>Wilson</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Smith</t>
   </si>
 </sst>
 </file>
@@ -553,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,6 +825,68 @@
         <v>31</v>
       </c>
     </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2">
+        <v>36434</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>9550273610</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>101</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>1233456689</v>
+      </c>
+      <c r="K5">
+        <v>9652792729</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5">
+        <v>9652792729</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
